--- a/data/financial_statements/socf/JPM.xlsx
+++ b/data/financial_statements/socf/JPM.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,1890 +587,1893 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-26668000000</v>
+      </c>
+      <c r="C2">
         <v>9737000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>8649000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8282000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10399000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>11687000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11948000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>14300000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12136000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9443000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4687000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2865000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>8520000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>9080000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>9652000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>9179000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7066000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>8380000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>8316000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>8712000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4232000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>6732000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>7029000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>6448000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>6727000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>6286000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>6200000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>5520000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5434000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>6804000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>6290000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>5914000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>4931000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5565000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5980000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5269000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5241000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>-380000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>6496000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>6529000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>1771000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1789000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1820000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1931000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1928000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2003000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2070000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2127000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2141000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2149000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2197000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2139000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2145000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2046000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2038000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2075000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1992000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1927000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1797000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1632000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1579000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1504000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1464000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1446000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1407000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1336000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1289000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1273000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1248000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1238000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1181000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1186000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1147000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1218000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1208000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1246000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1651000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1435000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>974000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>1811000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>717000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1933000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4135000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-2743000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-1358000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-2268000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>81000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>177000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7837000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>7461000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3488000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1597000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1398000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2368000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>4130000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1409000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1829000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1941000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4288000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1918000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>984000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2548000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>5039000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1968000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1606000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3198000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3489000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>493000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1458000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1505000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>3788000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>644000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>912000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>4270000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>6080000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>411000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>855000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2570000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>5354000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>11279000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-40423000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>16489000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>18424000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-24532000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-34233000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-13272000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-3538000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>52114000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-44330000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>15512000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-7135000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-15115000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>8786000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-3474000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-1789000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-2848000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-6719000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-6779000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>6559000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-5907000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-11099000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>11868000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2420000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-10260000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-10754000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>9358000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>17274000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-4477000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1763000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3122000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>6011000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-3770000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-5118000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-2200000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>15031000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-5314000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-12219000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>-60190000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>37397000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-91213000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>83010000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4704000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>32258000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-34262000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-3625000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-11993000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>34696000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-167827000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>98592000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>19521000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>11502000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-123064000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>9360000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-1568000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-5628000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-37231000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>36862000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-8275000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-5260000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-17654000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>24075000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>8419000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-19522000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-32979000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>17739000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>10359000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>28664000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>5450000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>5728000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-15778000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-18774000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>4010000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>5035000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>15933000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>39887000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>28255000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>4985000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6238000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>64738000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-4385000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>16775000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7213000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>23559000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-9080000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-2374000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-26151000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>45020000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-20127000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>10871000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-1915000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>10705000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-12047000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>14103000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>12664000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-90000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-6384000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>373000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1046000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-11543000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-568000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1941000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>3590000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>124000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-9941000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>-3988000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-2950000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-6482000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-3283000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>7608000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-538000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2271000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-23276000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-2242000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>21872000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-2104000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>18088000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-238000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>12333000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-27073000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-26847000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-14823000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-11827000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-18241000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-10085000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7034000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>35326000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-25513000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-18444000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-20458000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>4491000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-4495000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-11004000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>21270000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-3121000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-21242000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-13915000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-255000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>4485000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-3070000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-21064000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>14840000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>12629000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-12482000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-3987000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-13246000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>9207000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>13622000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-4098000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>8516000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>632000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>921000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>-5426000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>6358000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-3537000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>240000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>187000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>613000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>589000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-597000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>821000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-1211000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1822000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1541000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>553000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-801000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>200000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-1620000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-964000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>4617000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-766000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1666000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-1845000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-398000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-55000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>134000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>4932000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>2792000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-4918000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>2815000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>686000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-410000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1297000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-3079000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>319000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-3659000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-348000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-3548000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2085000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>2125000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>39000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1405000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-3069000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-504000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>-18204000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>66018000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-41917000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>85095000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>23331000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>13530000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-43872000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-28052000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-14688000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>82919000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-120089000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>82811000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>16015000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-13854000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-80880000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1849000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>13189000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>35685000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-35109000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>12554000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-4895000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>4073000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-22559000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>40599000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>4192000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-1524000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-21383000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>16167000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>25124000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>17296000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>14879000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>28746000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-2449000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-4371000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>14667000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-6914000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>26383000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>68520000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>19964000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI11">
         <v>43000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-19000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-17000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-8000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-37000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>20092000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-20426000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-40407000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20384000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-21194000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>11492000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>23791000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>23482000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-59230000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-502000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-10865000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>8189000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>10450000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>31298000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>22459000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-103942000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>8850000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>21070000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-49179000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-13015000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>33099000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-28016000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>39380000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>58765000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-46029000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>554000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-30758000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>41997000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>17058000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>113971000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-25374000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-71589000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>13296000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-5713000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-73572000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>43085000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-43523000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-88145000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-58054000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>36515000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>6198000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-20806000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-79944000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-24004000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>24814000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-17687000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-59638000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>27831000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-83144000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-65801000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-4905000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-85809000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-36286000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-2772000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-29111000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-460000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2711000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>8814000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>12850000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1244000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>21079000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>8050000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-25506000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>5953000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>7131000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>9080000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>13573000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>10271000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>11752000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>10387000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>15543000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-11500000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-7254000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>4606000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>2945000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>2187000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>3252000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>268000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-17085000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-38975000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-11395000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-40598000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-17077000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-18608000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9287000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-27550000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>16672000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>36000000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-59167000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-18842000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>11434000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-3889000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>16614000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-26585000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-9198000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-17734000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-4656000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-19292000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-11176000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-15636000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-318000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-10359000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-19962000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-25168000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-12903000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-28312000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-25078000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-24102000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-9163000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-13936000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>469000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-16542000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>556000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-7492000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-5503000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-1889000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2368000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>39522000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-53203000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-72608000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-100158000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-62275000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>17698000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>15391000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-63706000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-14727000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-47646000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-135833000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-15558000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-63925000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-8877000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>36301000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-159638000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-808000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>6047000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-45021000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-19457000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>23167000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-22573000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>47112000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>22900000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-60038000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-17483000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-34581000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>27258000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2251000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>101621000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-24150000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-70006000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2308000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-29528000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-68410000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>38600000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-46856000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-86790000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-55455000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>18481000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>12633000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>41457000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-53243000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>9269000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-48985000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>107410000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-18855000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-46234000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>7164000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>67522000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-73809000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>37859000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-44731000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>44942000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>16341000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1357000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>299000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>19243000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-20123000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-2850000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-6486000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>12452000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-11628000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>18596000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>9430000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>8269000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-44336000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-19582000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-19756000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-1205000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>6686000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-19623000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-1489000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>47813000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-30311000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-50459000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>16026000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>31710000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>-707000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-2455000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-2122000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-5286000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-6194000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-4806000000</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
@@ -2364,121 +2481,121 @@
         <v>0</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>-6517000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-6751000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-6949000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-5210000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-5091000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-5928000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-4416000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-4968000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-4671000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-4808000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-4763000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-3007000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-2832000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-2251000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-2295000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-2840000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-1696000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-1219000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-1248000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-1249000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-1900000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-1510000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-1489000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-1375000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-386000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-299000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-740000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-1172000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-2578000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>-2000000000</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>2000000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1275000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1500000000</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
@@ -2486,686 +2603,686 @@
         <v>0</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>3070000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-1370000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1370000000</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>925000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1655000000</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
       <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
         <v>1119000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>3382000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1392000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-1000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1599000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>3354000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>3895000000</v>
       </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
       <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>-303000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1498000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>878000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-3412000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-3344000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-3430000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-3386000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-3158000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-3121000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-3193000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-3139000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-3209000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-3154000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-3188000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-3287000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-2975000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-3048000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-3033000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-3120000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-2273000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-2480000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-2236000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-2515000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-2092000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-2341000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-2045000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-2287000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-2069000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-2174000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-1946000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-2195000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-1944000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-1964000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-1770000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-1912000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-1718000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-1806000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-1554000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-1782000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-1547000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-1485000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-1242000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-47952000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-92384000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>99200000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>56729000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>94222000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>19082000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>118000000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>147952000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>68694000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>85121000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>301418000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>22198000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>10232000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>40023000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>31692000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>12201000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>6230000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-39674000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>48253000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>5683000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-1801000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>16140000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>36030000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-17262000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>43308000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>16159000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>48957000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>3752000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-8429000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-98179000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>7820000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>40904000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>19856000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>36434000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-9450000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>9473000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>74184000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-12939000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-588000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-32883000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-83802000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>132772000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-2022000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>97047000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-37943000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>218911000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>125958000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>19251000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>89131000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>362305000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-63019000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>39537000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-12966000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>69435000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>17839000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2553000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-46823000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>60589000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-21763000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-11506000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>4306000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>43605000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-33428000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>57540000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>20575000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>53584000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-43998000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-30084000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-117766000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>4337000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>44167000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-1375000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>35118000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>40318000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-22919000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>21135000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1928000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>28180000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-13508000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-14285000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-4549000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1950000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-3655000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1064000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-6967000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>5887000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3957000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1791000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-2480000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2800000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-3068000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1131000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-1045000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-354000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-1017000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-4541000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>3049000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>814000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1864000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>2834000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>2574000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-1500000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-14000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-70000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>102000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-195000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-128000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>123000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-76000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-448000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-635000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-17000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-25000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>340000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>788000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>32000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-888000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>-25073000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-85272000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>13698000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-19035000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>54448000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-5651000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>183463000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>40087000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-6207000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>126195000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>103903000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>7034000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-11441000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-34566000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>23811000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-140304000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>13917000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-9632000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-16492000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-27852000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>8630000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-11360000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>70732000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>28571000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>1680000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>1498000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-2278000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-768000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-2837000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1274000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-5010000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2459000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-2151000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1202000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-13450000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>9107000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1450000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-16310000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-8199000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>740834000000.0001</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -3173,11 +3290,11 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>527609000000.0001</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
@@ -3185,11 +3302,11 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>263631000000</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
         <v>0</v>
       </c>
@@ -3197,11 +3314,11 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>278793000000</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>0</v>
       </c>
@@ -3209,11 +3326,11 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>431304000000</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -3221,23 +3338,23 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>391154000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>341193000000</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>20490000000</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
       <c r="AD24">
         <v>0</v>
       </c>
@@ -3245,11 +3362,11 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>27831000000</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
         <v>0</v>
       </c>
@@ -3257,11 +3374,11 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>39771000000</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
       <c r="AL24">
         <v>0</v>
       </c>
@@ -3269,670 +3386,676 @@
         <v>0</v>
       </c>
       <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>53723000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>-25073000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-85272000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>754532000000.0001</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-19035000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>54448000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-5651000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>711072000000.0001</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>40087000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-6207000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>126195000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>367534000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>7034000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-11441000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-34566000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>302604000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-140304000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>13917000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-9632000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>414812000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-27852000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>8630000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-11360000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>461886000000.0001</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>369764000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1680000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1498000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>18212000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-768000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-2837000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1274000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>22821000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2459000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-2151000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1202000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>26321000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>9107000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1450000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>-16310000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>45524000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI26">
         <v>539000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>524000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>618000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>507000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>586000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>641000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>10186000000</v>
+      </c>
+      <c r="C27">
         <v>-3412000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-3344000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-3430000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-3386000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-3158000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-3121000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-3193000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-3139000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-3209000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-3154000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-3188000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-3287000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-2975000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-3048000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-3033000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-3120000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-2273000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-2480000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-2236000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-2515000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-2092000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-2341000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-2045000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-2287000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-2069000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-2174000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-1946000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-2195000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-1944000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-1964000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-1770000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-1912000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-1718000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-1806000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-1554000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-1782000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-1547000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-1485000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-1242000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-1.8808</v>
+      </c>
+      <c r="C28">
         <v>-2.835</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-2.661</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-2.4475</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-1.8033</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-1.9431</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-1.8837</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-1.9005</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-1.9311</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-2.5501</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-2.3365</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-2.0818</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-1.316</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-1.8951</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-2.0848</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-2.4464</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-2.208</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-2.0523</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-2.1662</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-2.1456</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-1.8975</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-2.1775</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-2.2986</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-2.3379</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-2.1823</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-2.8533</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-2.9238</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-2.9913</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-2.4578</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-2.9191</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-2.7737</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-3.7127</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-3.4838</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-3.3774</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-3.4773</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-3.187</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-3.0865</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-3.7365</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-3.5153</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-3.5972</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>-31763000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>54676000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-54565000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>68041000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>13056000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>116000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-56763000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-44218000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-27990000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>67693000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-131811000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>68464000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>4813000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-25986000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-99082000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-10656000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-258000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>25458000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-47161000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>2457000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-15258000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-10376000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-35811000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>32305000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-8284000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-11352000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-30980000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>4674000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>19658000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>7991000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>9938000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>19189000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-6257000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-14566000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1795000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-19520000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>23296000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>62803000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>10395000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>56607000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-14228000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-61213000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-59560000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-45198000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>36306000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6104000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-36156000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-31399000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-83646000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-76666000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>3284000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-75359000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-4988000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>19687000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-133053000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>8390000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>23781000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-40365000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-165000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>34343000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-6937000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>47430000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>33259000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-40076000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>7685000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-21678000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>55570000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>27329000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>125723000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-14987000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-56046000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1796000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-12967000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-68966000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>46030000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-41336000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-84893000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-57786000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>-707000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-4455000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-2122000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-3286000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-4919000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-3306000000</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
         <v>0</v>
       </c>
@@ -3940,121 +4063,121 @@
         <v>0</v>
       </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>-3447000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-8121000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-5579000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-5210000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-4166000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-7583000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-2761000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-4968000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-4671000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-4808000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-4763000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-3007000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-2832000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-2251000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-2295000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-2840000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-1696000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-1219000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-129000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>2133000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-508000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-1511000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>110000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1979000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>3509000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-299000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-1043000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>326000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-1700000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>-707000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-4455000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-2122000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-3286000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-4919000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-3306000000</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
         <v>0</v>
       </c>
@@ -4062,90 +4185,93 @@
         <v>0</v>
       </c>
       <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>-3447000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-8121000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-5579000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-5210000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-4166000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-5928000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-2761000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-4968000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-4671000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-4808000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-4763000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-3007000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-2832000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-2251000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-2295000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-2840000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-1696000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-1219000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-129000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>2133000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-508000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-1511000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>110000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>1979000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>3509000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-299000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-1043000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>326000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-1700000000</v>
       </c>
     </row>
